--- a/SaveFile.xlsx
+++ b/SaveFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi_mld/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9622504A-4A45-5F48-8FDF-5B5D42F27CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{611C77BC-4113-314B-B5C3-55F805965432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5040" yWindow="1860" windowWidth="28300" windowHeight="17440"/>
   </bookViews>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>11878020</v>
+        <v>12066680</v>
       </c>
       <c r="B7">
-        <v>-130280</v>
+        <v>58380</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2191,16 +2191,16 @@
         <v>819</v>
       </c>
       <c r="F12">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G12">
         <v>81900</v>
       </c>
       <c r="H12">
-        <v>81700</v>
+        <v>81400</v>
       </c>
       <c r="I12">
-        <v>-200</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2217,16 +2217,16 @@
         <v>260</v>
       </c>
       <c r="F13">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G13">
         <v>26000</v>
       </c>
       <c r="H13">
-        <v>25200</v>
+        <v>25100</v>
       </c>
       <c r="I13">
-        <v>-800</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2243,16 +2243,16 @@
         <v>223</v>
       </c>
       <c r="F14">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G14">
         <v>22300</v>
       </c>
       <c r="H14">
-        <v>20800</v>
+        <v>21000</v>
       </c>
       <c r="I14">
-        <v>-1500</v>
+        <v>-1300</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2269,16 +2269,16 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15">
         <v>2000</v>
       </c>
       <c r="H15">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="I15">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2295,16 +2295,16 @@
         <v>149</v>
       </c>
       <c r="F16">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G16">
         <v>14900</v>
       </c>
       <c r="H16">
-        <v>14800</v>
+        <v>15000</v>
       </c>
       <c r="I16">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2321,16 +2321,16 @@
         <v>359</v>
       </c>
       <c r="F17">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G17">
         <v>35900</v>
       </c>
       <c r="H17">
-        <v>34700</v>
+        <v>34300</v>
       </c>
       <c r="I17">
-        <v>-1200</v>
+        <v>-1600</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2347,16 +2347,16 @@
         <v>18</v>
       </c>
       <c r="F18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1800</v>
       </c>
       <c r="H18">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="I18">
-        <v>900</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2373,16 +2373,16 @@
         <v>466</v>
       </c>
       <c r="F19">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="G19">
         <v>46600</v>
       </c>
       <c r="H19">
-        <v>46300</v>
+        <v>47500</v>
       </c>
       <c r="I19">
-        <v>-300</v>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2399,16 +2399,16 @@
         <v>485</v>
       </c>
       <c r="F20">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="G20">
         <v>48500</v>
       </c>
       <c r="H20">
-        <v>48000</v>
+        <v>48500</v>
       </c>
       <c r="I20">
-        <v>-500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2451,16 +2451,16 @@
         <v>474</v>
       </c>
       <c r="F22">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="G22">
         <v>47400</v>
       </c>
       <c r="H22">
-        <v>47600</v>
+        <v>48800</v>
       </c>
       <c r="I22">
-        <v>200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2477,16 +2477,16 @@
         <v>527</v>
       </c>
       <c r="F23">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="G23">
         <v>52700</v>
       </c>
       <c r="H23">
-        <v>50700</v>
+        <v>52000</v>
       </c>
       <c r="I23">
-        <v>-2000</v>
+        <v>-700</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2529,16 +2529,16 @@
         <v>459</v>
       </c>
       <c r="F25">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="G25">
         <v>45900</v>
       </c>
       <c r="H25">
-        <v>46100</v>
+        <v>46900</v>
       </c>
       <c r="I25">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2555,16 +2555,16 @@
         <v>254</v>
       </c>
       <c r="F26">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G26">
         <v>25400</v>
       </c>
       <c r="H26">
-        <v>25500</v>
+        <v>26000</v>
       </c>
       <c r="I26">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2607,16 +2607,16 @@
         <v>221</v>
       </c>
       <c r="F28">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G28">
         <v>22100</v>
       </c>
       <c r="H28">
-        <v>22000</v>
+        <v>22600</v>
       </c>
       <c r="I28">
-        <v>-100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2633,16 +2633,16 @@
         <v>76</v>
       </c>
       <c r="F29">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G29">
         <v>7600</v>
       </c>
       <c r="H29">
-        <v>8800</v>
+        <v>9300</v>
       </c>
       <c r="I29">
-        <v>1200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2685,16 +2685,16 @@
         <v>816</v>
       </c>
       <c r="F31">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="G31">
         <v>81600</v>
       </c>
       <c r="H31">
-        <v>81500</v>
+        <v>82600</v>
       </c>
       <c r="I31">
-        <v>-100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2711,16 +2711,16 @@
         <v>305</v>
       </c>
       <c r="F32">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G32">
         <v>30500</v>
       </c>
       <c r="H32">
-        <v>32500</v>
+        <v>32400</v>
       </c>
       <c r="I32">
-        <v>2000</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2737,16 +2737,16 @@
         <v>177</v>
       </c>
       <c r="F33">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G33">
         <v>17700</v>
       </c>
       <c r="H33">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="I33">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2763,16 +2763,16 @@
         <v>359</v>
       </c>
       <c r="F34">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G34">
         <v>35900</v>
       </c>
       <c r="H34">
-        <v>34600</v>
+        <v>35300</v>
       </c>
       <c r="I34">
-        <v>-1300</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2789,16 +2789,16 @@
         <v>386</v>
       </c>
       <c r="F35">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="G35">
         <v>38600</v>
       </c>
       <c r="H35">
-        <v>38100</v>
+        <v>40000</v>
       </c>
       <c r="I35">
-        <v>-500</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2867,16 +2867,16 @@
         <v>407</v>
       </c>
       <c r="F38">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="G38">
         <v>40700</v>
       </c>
       <c r="H38">
-        <v>39900</v>
+        <v>41300</v>
       </c>
       <c r="I38">
-        <v>-800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2893,16 +2893,16 @@
         <v>155</v>
       </c>
       <c r="F39">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G39">
         <v>15500</v>
       </c>
       <c r="H39">
-        <v>14300</v>
+        <v>14700</v>
       </c>
       <c r="I39">
-        <v>-1200</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2919,16 +2919,16 @@
         <v>468</v>
       </c>
       <c r="F40">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G40">
         <v>46800</v>
       </c>
       <c r="H40">
-        <v>45100</v>
+        <v>45500</v>
       </c>
       <c r="I40">
-        <v>-1700</v>
+        <v>-1300</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2945,16 +2945,16 @@
         <v>271</v>
       </c>
       <c r="F41">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G41">
         <v>27100</v>
       </c>
       <c r="H41">
-        <v>26100</v>
+        <v>26000</v>
       </c>
       <c r="I41">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2971,16 +2971,16 @@
         <v>194</v>
       </c>
       <c r="F42">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G42">
         <v>19400</v>
       </c>
       <c r="H42">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="I42">
-        <v>700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2997,16 +2997,16 @@
         <v>161</v>
       </c>
       <c r="F43">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G43">
         <v>16100</v>
       </c>
       <c r="H43">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="I43">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3023,16 +3023,16 @@
         <v>63</v>
       </c>
       <c r="F44">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G44">
         <v>6300</v>
       </c>
       <c r="H44">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="I44">
-        <v>-400</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3049,16 +3049,16 @@
         <v>484</v>
       </c>
       <c r="F45">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="G45">
         <v>48400</v>
       </c>
       <c r="H45">
-        <v>47700</v>
+        <v>48600</v>
       </c>
       <c r="I45">
-        <v>-700</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3075,16 +3075,16 @@
         <v>118</v>
       </c>
       <c r="F46">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G46">
         <v>11800</v>
       </c>
       <c r="H46">
-        <v>11600</v>
+        <v>12200</v>
       </c>
       <c r="I46">
-        <v>-200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3101,16 +3101,16 @@
         <v>365</v>
       </c>
       <c r="F47">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="G47">
         <v>36500</v>
       </c>
       <c r="H47">
-        <v>37200</v>
+        <v>37900</v>
       </c>
       <c r="I47">
-        <v>700</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3127,16 +3127,16 @@
         <v>236</v>
       </c>
       <c r="F48">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G48">
         <v>23600</v>
       </c>
       <c r="H48">
-        <v>22800</v>
+        <v>23400</v>
       </c>
       <c r="I48">
-        <v>-800</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3153,16 +3153,16 @@
         <v>349</v>
       </c>
       <c r="F49">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G49">
         <v>34900</v>
       </c>
       <c r="H49">
-        <v>34200</v>
+        <v>34100</v>
       </c>
       <c r="I49">
-        <v>-700</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3179,16 +3179,16 @@
         <v>532</v>
       </c>
       <c r="F50">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="G50">
         <v>53200</v>
       </c>
       <c r="H50">
-        <v>53000</v>
+        <v>54300</v>
       </c>
       <c r="I50">
-        <v>-200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3205,16 +3205,16 @@
         <v>445</v>
       </c>
       <c r="F51">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G51">
         <v>44500</v>
       </c>
       <c r="H51">
-        <v>45200</v>
+        <v>45400</v>
       </c>
       <c r="I51">
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3231,16 +3231,16 @@
         <v>340</v>
       </c>
       <c r="F52">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G52">
         <v>34000</v>
       </c>
       <c r="H52">
-        <v>33600</v>
+        <v>33900</v>
       </c>
       <c r="I52">
-        <v>-400</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3257,16 +3257,16 @@
         <v>401</v>
       </c>
       <c r="F53">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="G53">
         <v>40100</v>
       </c>
       <c r="H53">
-        <v>38200</v>
+        <v>39700</v>
       </c>
       <c r="I53">
-        <v>-1900</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3283,16 +3283,16 @@
         <v>139</v>
       </c>
       <c r="F54">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G54">
         <v>13900</v>
       </c>
       <c r="H54">
-        <v>13700</v>
+        <v>13900</v>
       </c>
       <c r="I54">
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3309,16 +3309,16 @@
         <v>79</v>
       </c>
       <c r="F55">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G55">
         <v>7900</v>
       </c>
       <c r="H55">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="I55">
-        <v>-200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3335,16 +3335,16 @@
         <v>181</v>
       </c>
       <c r="F56">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G56">
         <v>18100</v>
       </c>
       <c r="H56">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="I56">
-        <v>-200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3361,16 +3361,16 @@
         <v>482</v>
       </c>
       <c r="F57">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G57">
         <v>48200</v>
       </c>
       <c r="H57">
-        <v>46600</v>
+        <v>45800</v>
       </c>
       <c r="I57">
-        <v>-1600</v>
+        <v>-2400</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3387,16 +3387,16 @@
         <v>352</v>
       </c>
       <c r="F58">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G58">
         <v>35200</v>
       </c>
       <c r="H58">
-        <v>34700</v>
+        <v>35100</v>
       </c>
       <c r="I58">
-        <v>-500</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3413,16 +3413,16 @@
         <v>144</v>
       </c>
       <c r="F59">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G59">
         <v>14400</v>
       </c>
       <c r="H59">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="I59">
-        <v>-1400</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3439,16 +3439,16 @@
         <v>845</v>
       </c>
       <c r="F60">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="G60">
         <v>84500</v>
       </c>
       <c r="H60">
-        <v>83600</v>
+        <v>85000</v>
       </c>
       <c r="I60">
-        <v>-900</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3465,16 +3465,16 @@
         <v>318</v>
       </c>
       <c r="F61">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G61">
         <v>31800</v>
       </c>
       <c r="H61">
-        <v>31000</v>
+        <v>31500</v>
       </c>
       <c r="I61">
-        <v>-800</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3491,16 +3491,16 @@
         <v>504</v>
       </c>
       <c r="F62">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G62">
         <v>50400</v>
       </c>
       <c r="H62">
-        <v>50300</v>
+        <v>50700</v>
       </c>
       <c r="I62">
-        <v>-100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3517,16 +3517,16 @@
         <v>446</v>
       </c>
       <c r="F63">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G63">
         <v>44600</v>
       </c>
       <c r="H63">
-        <v>47100</v>
+        <v>46700</v>
       </c>
       <c r="I63">
-        <v>2500</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3543,16 +3543,16 @@
         <v>158</v>
       </c>
       <c r="F64">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G64">
         <v>15800</v>
       </c>
       <c r="H64">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="I64">
-        <v>-500</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3569,16 +3569,16 @@
         <v>111</v>
       </c>
       <c r="F65">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G65">
         <v>11100</v>
       </c>
       <c r="H65">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="I65">
-        <v>-600</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3595,16 +3595,16 @@
         <v>250</v>
       </c>
       <c r="F66">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G66">
         <v>25000</v>
       </c>
       <c r="H66">
-        <v>26500</v>
+        <v>26800</v>
       </c>
       <c r="I66">
-        <v>1500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3621,16 +3621,16 @@
         <v>481</v>
       </c>
       <c r="F67">
-        <v>555</v>
+        <v>663</v>
       </c>
       <c r="G67">
         <v>48100</v>
       </c>
       <c r="H67">
-        <v>55500</v>
+        <v>66300</v>
       </c>
       <c r="I67">
-        <v>7400</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3647,16 +3647,16 @@
         <v>154</v>
       </c>
       <c r="F68">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G68">
         <v>15400</v>
       </c>
       <c r="H68">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="I68">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3673,16 +3673,16 @@
         <v>144</v>
       </c>
       <c r="F69">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G69">
         <v>14400</v>
       </c>
       <c r="H69">
-        <v>13500</v>
+        <v>14100</v>
       </c>
       <c r="I69">
-        <v>-900</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3699,16 +3699,16 @@
         <v>298</v>
       </c>
       <c r="F70">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G70">
         <v>29800</v>
       </c>
       <c r="H70">
-        <v>30000</v>
+        <v>30400</v>
       </c>
       <c r="I70">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3725,16 +3725,16 @@
         <v>295</v>
       </c>
       <c r="F71">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G71">
         <v>29500</v>
       </c>
       <c r="H71">
-        <v>29600</v>
+        <v>29800</v>
       </c>
       <c r="I71">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3751,16 +3751,16 @@
         <v>256</v>
       </c>
       <c r="F72">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G72">
         <v>25600</v>
       </c>
       <c r="H72">
-        <v>25200</v>
+        <v>25000</v>
       </c>
       <c r="I72">
-        <v>-400</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3777,16 +3777,16 @@
         <v>872</v>
       </c>
       <c r="F73">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="G73">
         <v>87200</v>
       </c>
       <c r="H73">
-        <v>86400</v>
+        <v>87500</v>
       </c>
       <c r="I73">
-        <v>-800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3803,16 +3803,16 @@
         <v>405</v>
       </c>
       <c r="F74">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G74">
         <v>40500</v>
       </c>
       <c r="H74">
-        <v>41400</v>
+        <v>41600</v>
       </c>
       <c r="I74">
-        <v>900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3829,16 +3829,16 @@
         <v>92</v>
       </c>
       <c r="F75">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G75">
         <v>9200</v>
       </c>
       <c r="H75">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="I75">
-        <v>-700</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3855,16 +3855,16 @@
         <v>360</v>
       </c>
       <c r="F76">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G76">
         <v>36000</v>
       </c>
       <c r="H76">
-        <v>36600</v>
+        <v>37000</v>
       </c>
       <c r="I76">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3881,16 +3881,16 @@
         <v>486</v>
       </c>
       <c r="F77">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="G77">
         <v>48600</v>
       </c>
       <c r="H77">
-        <v>47500</v>
+        <v>49500</v>
       </c>
       <c r="I77">
-        <v>-1100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3907,16 +3907,16 @@
         <v>532</v>
       </c>
       <c r="F78">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="G78">
         <v>53200</v>
       </c>
       <c r="H78">
-        <v>52700</v>
+        <v>53700</v>
       </c>
       <c r="I78">
-        <v>-500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3933,16 +3933,16 @@
         <v>131</v>
       </c>
       <c r="F79">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G79">
         <v>13100</v>
       </c>
       <c r="H79">
-        <v>12700</v>
+        <v>13100</v>
       </c>
       <c r="I79">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3959,16 +3959,16 @@
         <v>469</v>
       </c>
       <c r="F80">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="G80">
         <v>46900</v>
       </c>
       <c r="H80">
-        <v>45700</v>
+        <v>46400</v>
       </c>
       <c r="I80">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3985,16 +3985,16 @@
         <v>372</v>
       </c>
       <c r="F81">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G81">
         <v>37200</v>
       </c>
       <c r="H81">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="I81">
-        <v>-400</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4011,16 +4011,16 @@
         <v>475</v>
       </c>
       <c r="F82">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="G82">
         <v>47500</v>
       </c>
       <c r="H82">
-        <v>48000</v>
+        <v>48700</v>
       </c>
       <c r="I82">
-        <v>500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4063,16 +4063,16 @@
         <v>318</v>
       </c>
       <c r="F84">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G84">
         <v>31800</v>
       </c>
       <c r="H84">
-        <v>30200</v>
+        <v>30600</v>
       </c>
       <c r="I84">
-        <v>-1600</v>
+        <v>-1200</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4089,16 +4089,16 @@
         <v>86</v>
       </c>
       <c r="F85">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G85">
         <v>8600</v>
       </c>
       <c r="H85">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="I85">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4115,16 +4115,16 @@
         <v>220</v>
       </c>
       <c r="F86">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G86">
         <v>22000</v>
       </c>
       <c r="H86">
-        <v>20300</v>
+        <v>20900</v>
       </c>
       <c r="I86">
-        <v>-1700</v>
+        <v>-1100</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4141,16 +4141,16 @@
         <v>130</v>
       </c>
       <c r="F87">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G87">
         <v>13000</v>
       </c>
       <c r="H87">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="I87">
-        <v>-700</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4167,16 +4167,16 @@
         <v>379</v>
       </c>
       <c r="F88">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="G88">
         <v>37900</v>
       </c>
       <c r="H88">
-        <v>36400</v>
+        <v>37600</v>
       </c>
       <c r="I88">
-        <v>-1500</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4193,16 +4193,16 @@
         <v>378</v>
       </c>
       <c r="F89">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G89">
         <v>37800</v>
       </c>
       <c r="H89">
-        <v>33800</v>
+        <v>34200</v>
       </c>
       <c r="I89">
-        <v>-4000</v>
+        <v>-3600</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4219,16 +4219,16 @@
         <v>361</v>
       </c>
       <c r="F90">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G90">
         <v>36100</v>
       </c>
       <c r="H90">
-        <v>35300</v>
+        <v>35600</v>
       </c>
       <c r="I90">
-        <v>-800</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4271,16 +4271,16 @@
         <v>207</v>
       </c>
       <c r="F92">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G92">
         <v>20700</v>
       </c>
       <c r="H92">
-        <v>19000</v>
+        <v>19100</v>
       </c>
       <c r="I92">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4297,16 +4297,16 @@
         <v>104</v>
       </c>
       <c r="F93">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G93">
         <v>10400</v>
       </c>
       <c r="H93">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="I93">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4323,16 +4323,16 @@
         <v>470</v>
       </c>
       <c r="F94">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G94">
         <v>47000</v>
       </c>
       <c r="H94">
-        <v>45500</v>
+        <v>45800</v>
       </c>
       <c r="I94">
-        <v>-1500</v>
+        <v>-1200</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4349,16 +4349,16 @@
         <v>407</v>
       </c>
       <c r="F95">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="G95">
         <v>40700</v>
       </c>
       <c r="H95">
-        <v>38900</v>
+        <v>39700</v>
       </c>
       <c r="I95">
-        <v>-1800</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4375,16 +4375,16 @@
         <v>329</v>
       </c>
       <c r="F96">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G96">
         <v>32900</v>
       </c>
       <c r="H96">
-        <v>32600</v>
+        <v>33100</v>
       </c>
       <c r="I96">
-        <v>-300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4401,16 +4401,16 @@
         <v>139</v>
       </c>
       <c r="F97">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G97">
         <v>13900</v>
       </c>
       <c r="H97">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="I97">
-        <v>-1400</v>
+        <v>-1100</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4427,16 +4427,16 @@
         <v>208</v>
       </c>
       <c r="F98">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G98">
         <v>20800</v>
       </c>
       <c r="H98">
-        <v>20400</v>
+        <v>20700</v>
       </c>
       <c r="I98">
-        <v>-400</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4453,16 +4453,16 @@
         <v>118</v>
       </c>
       <c r="F99">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G99">
         <v>11800</v>
       </c>
       <c r="H99">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="I99">
-        <v>-600</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4479,16 +4479,16 @@
         <v>281</v>
       </c>
       <c r="F100">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G100">
         <v>28100</v>
       </c>
       <c r="H100">
-        <v>26200</v>
+        <v>26500</v>
       </c>
       <c r="I100">
-        <v>-1900</v>
+        <v>-1600</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4505,16 +4505,16 @@
         <v>810</v>
       </c>
       <c r="F101">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="G101">
         <v>81000</v>
       </c>
       <c r="H101">
-        <v>80200</v>
+        <v>80900</v>
       </c>
       <c r="I101">
-        <v>-800</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4531,16 +4531,16 @@
         <v>195</v>
       </c>
       <c r="F102">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G102">
         <v>19500</v>
       </c>
       <c r="H102">
-        <v>23400</v>
+        <v>22300</v>
       </c>
       <c r="I102">
-        <v>3900</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4557,16 +4557,16 @@
         <v>490</v>
       </c>
       <c r="F103">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G103">
         <v>49000</v>
       </c>
       <c r="H103">
-        <v>49800</v>
+        <v>49500</v>
       </c>
       <c r="I103">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4583,16 +4583,16 @@
         <v>78</v>
       </c>
       <c r="F104">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G104">
         <v>7800</v>
       </c>
       <c r="H104">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="I104">
-        <v>-500</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4609,16 +4609,16 @@
         <v>355</v>
       </c>
       <c r="F105">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="G105">
         <v>35500</v>
       </c>
       <c r="H105">
-        <v>34200</v>
+        <v>34900</v>
       </c>
       <c r="I105">
-        <v>-1300</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4635,16 +4635,16 @@
         <v>480</v>
       </c>
       <c r="F106">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G106">
         <v>48000</v>
       </c>
       <c r="H106">
-        <v>46700</v>
+        <v>47000</v>
       </c>
       <c r="I106">
-        <v>-1300</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4661,16 +4661,16 @@
         <v>133</v>
       </c>
       <c r="F107">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G107">
         <v>13300</v>
       </c>
       <c r="H107">
-        <v>13700</v>
+        <v>14700</v>
       </c>
       <c r="I107">
-        <v>400</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4687,16 +4687,16 @@
         <v>31</v>
       </c>
       <c r="F108">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G108">
         <v>3100</v>
       </c>
       <c r="H108">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I108">
-        <v>-200</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4713,16 +4713,16 @@
         <v>113</v>
       </c>
       <c r="F109">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G109">
         <v>11300</v>
       </c>
       <c r="H109">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="I109">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4739,16 +4739,16 @@
         <v>218</v>
       </c>
       <c r="F110">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G110">
         <v>21800</v>
       </c>
       <c r="H110">
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="I110">
-        <v>-300</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4765,16 +4765,16 @@
         <v>115</v>
       </c>
       <c r="F111">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G111">
         <v>11500</v>
       </c>
       <c r="H111">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="I111">
-        <v>-500</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4791,16 +4791,16 @@
         <v>515</v>
       </c>
       <c r="F112">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G112">
         <v>51500</v>
       </c>
       <c r="H112">
-        <v>52800</v>
+        <v>51800</v>
       </c>
       <c r="I112">
-        <v>1300</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4817,16 +4817,16 @@
         <v>378</v>
       </c>
       <c r="F113">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G113">
         <v>37800</v>
       </c>
       <c r="H113">
-        <v>37700</v>
+        <v>37800</v>
       </c>
       <c r="I113">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4843,16 +4843,16 @@
         <v>342</v>
       </c>
       <c r="F114">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="G114">
         <v>34200</v>
       </c>
       <c r="H114">
-        <v>36900</v>
+        <v>38800</v>
       </c>
       <c r="I114">
-        <v>2700</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4869,16 +4869,16 @@
         <v>179</v>
       </c>
       <c r="F115">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G115">
         <v>17900</v>
       </c>
       <c r="H115">
-        <v>19800</v>
+        <v>20800</v>
       </c>
       <c r="I115">
-        <v>1900</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4895,16 +4895,16 @@
         <v>140</v>
       </c>
       <c r="F116">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G116">
         <v>14000</v>
       </c>
       <c r="H116">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="I116">
-        <v>-400</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4921,16 +4921,16 @@
         <v>279</v>
       </c>
       <c r="F117">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="G117">
         <v>27900</v>
       </c>
       <c r="H117">
-        <v>26500</v>
+        <v>27200</v>
       </c>
       <c r="I117">
-        <v>-1400</v>
+        <v>-700</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4947,16 +4947,16 @@
         <v>394</v>
       </c>
       <c r="F118">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G118">
         <v>39400</v>
       </c>
       <c r="H118">
-        <v>37600</v>
+        <v>38200</v>
       </c>
       <c r="I118">
-        <v>-1800</v>
+        <v>-1200</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4973,16 +4973,16 @@
         <v>411</v>
       </c>
       <c r="F119">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G119">
         <v>41100</v>
       </c>
       <c r="H119">
-        <v>40500</v>
+        <v>40800</v>
       </c>
       <c r="I119">
-        <v>-600</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4999,16 +4999,16 @@
         <v>252</v>
       </c>
       <c r="F120">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="G120">
         <v>25200</v>
       </c>
       <c r="H120">
-        <v>25800</v>
+        <v>27700</v>
       </c>
       <c r="I120">
-        <v>600</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5051,16 +5051,16 @@
         <v>150</v>
       </c>
       <c r="F122">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G122">
         <v>15000</v>
       </c>
       <c r="H122">
-        <v>15400</v>
+        <v>17000</v>
       </c>
       <c r="I122">
-        <v>400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5077,16 +5077,16 @@
         <v>342</v>
       </c>
       <c r="F123">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G123">
         <v>34200</v>
       </c>
       <c r="H123">
-        <v>33200</v>
+        <v>33600</v>
       </c>
       <c r="I123">
-        <v>-1000</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5103,16 +5103,16 @@
         <v>162</v>
       </c>
       <c r="F124">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G124">
         <v>16200</v>
       </c>
       <c r="H124">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="I124">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5129,16 +5129,16 @@
         <v>454</v>
       </c>
       <c r="F125">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="G125">
         <v>45400</v>
       </c>
       <c r="H125">
-        <v>41800</v>
+        <v>43700</v>
       </c>
       <c r="I125">
-        <v>-3600</v>
+        <v>-1700</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5155,16 +5155,16 @@
         <v>237</v>
       </c>
       <c r="F126">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G126">
         <v>23700</v>
       </c>
       <c r="H126">
-        <v>23300</v>
+        <v>24100</v>
       </c>
       <c r="I126">
-        <v>-400</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5181,16 +5181,16 @@
         <v>195</v>
       </c>
       <c r="F127">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G127">
         <v>19500</v>
       </c>
       <c r="H127">
-        <v>18900</v>
+        <v>18600</v>
       </c>
       <c r="I127">
-        <v>-600</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5207,16 +5207,16 @@
         <v>539</v>
       </c>
       <c r="F128">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="G128">
         <v>53900</v>
       </c>
       <c r="H128">
-        <v>56500</v>
+        <v>57300</v>
       </c>
       <c r="I128">
-        <v>2600</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5233,16 +5233,16 @@
         <v>151</v>
       </c>
       <c r="F129">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G129">
         <v>15100</v>
       </c>
       <c r="H129">
-        <v>14900</v>
+        <v>15300</v>
       </c>
       <c r="I129">
-        <v>-200</v>
+        <v>200</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5259,16 +5259,16 @@
         <v>183</v>
       </c>
       <c r="F130">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G130">
         <v>18300</v>
       </c>
       <c r="H130">
-        <v>19300</v>
+        <v>19900</v>
       </c>
       <c r="I130">
-        <v>1000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5285,16 +5285,16 @@
         <v>308</v>
       </c>
       <c r="F131">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G131">
         <v>30800</v>
       </c>
       <c r="H131">
-        <v>29700</v>
+        <v>30300</v>
       </c>
       <c r="I131">
-        <v>-1100</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5311,16 +5311,16 @@
         <v>503</v>
       </c>
       <c r="F132">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G132">
         <v>50300</v>
       </c>
       <c r="H132">
-        <v>48200</v>
+        <v>48400</v>
       </c>
       <c r="I132">
-        <v>-2100</v>
+        <v>-1900</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5337,16 +5337,16 @@
         <v>814</v>
       </c>
       <c r="F133">
-        <v>801.1</v>
+        <v>806.6</v>
       </c>
       <c r="G133">
         <v>81400</v>
       </c>
       <c r="H133">
-        <v>80110</v>
+        <v>80660</v>
       </c>
       <c r="I133">
-        <v>-1290</v>
+        <v>-740</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5363,16 +5363,16 @@
         <v>539</v>
       </c>
       <c r="F134">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="G134">
         <v>53900</v>
       </c>
       <c r="H134">
-        <v>51800</v>
+        <v>52800</v>
       </c>
       <c r="I134">
-        <v>-2100</v>
+        <v>-1100</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5389,16 +5389,16 @@
         <v>509</v>
       </c>
       <c r="F135">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="G135">
         <v>50900</v>
       </c>
       <c r="H135">
-        <v>50200</v>
+        <v>50800</v>
       </c>
       <c r="I135">
-        <v>-700</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5415,16 +5415,16 @@
         <v>821</v>
       </c>
       <c r="F136">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="G136">
         <v>82100</v>
       </c>
       <c r="H136">
-        <v>80300</v>
+        <v>81100</v>
       </c>
       <c r="I136">
-        <v>-1800</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5441,16 +5441,16 @@
         <v>535</v>
       </c>
       <c r="F137">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G137">
         <v>53500</v>
       </c>
       <c r="H137">
-        <v>52900</v>
+        <v>53300</v>
       </c>
       <c r="I137">
-        <v>-600</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5467,16 +5467,16 @@
         <v>270</v>
       </c>
       <c r="F138">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G138">
         <v>27000</v>
       </c>
       <c r="H138">
-        <v>26200</v>
+        <v>26600</v>
       </c>
       <c r="I138">
-        <v>-800</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5493,16 +5493,16 @@
         <v>534</v>
       </c>
       <c r="F139">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G139">
         <v>53400</v>
       </c>
       <c r="H139">
-        <v>51900</v>
+        <v>52200</v>
       </c>
       <c r="I139">
-        <v>-1500</v>
+        <v>-1200</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5519,16 +5519,16 @@
         <v>481</v>
       </c>
       <c r="F140">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="G140">
         <v>48100</v>
       </c>
       <c r="H140">
-        <v>49800</v>
+        <v>51900</v>
       </c>
       <c r="I140">
-        <v>1700</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5545,16 +5545,16 @@
         <v>84</v>
       </c>
       <c r="F141">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G141">
         <v>8400</v>
       </c>
       <c r="H141">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="I141">
-        <v>-300</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5571,16 +5571,16 @@
         <v>539</v>
       </c>
       <c r="F142">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G142">
         <v>53900</v>
       </c>
       <c r="H142">
-        <v>51800</v>
+        <v>51200</v>
       </c>
       <c r="I142">
-        <v>-2100</v>
+        <v>-2700</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5597,16 +5597,16 @@
         <v>210</v>
       </c>
       <c r="F143">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G143">
         <v>21000</v>
       </c>
       <c r="H143">
-        <v>20100</v>
+        <v>20300</v>
       </c>
       <c r="I143">
-        <v>-900</v>
+        <v>-700</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5623,16 +5623,16 @@
         <v>274</v>
       </c>
       <c r="F144">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G144">
         <v>27400</v>
       </c>
       <c r="H144">
-        <v>26200</v>
+        <v>26400</v>
       </c>
       <c r="I144">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5649,16 +5649,16 @@
         <v>91</v>
       </c>
       <c r="F145">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G145">
         <v>9100</v>
       </c>
       <c r="H145">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="I145">
-        <v>-900</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5675,16 +5675,16 @@
         <v>313</v>
       </c>
       <c r="F146">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G146">
         <v>31300</v>
       </c>
       <c r="H146">
-        <v>25500</v>
+        <v>26100</v>
       </c>
       <c r="I146">
-        <v>-5800</v>
+        <v>-5200</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5701,16 +5701,16 @@
         <v>212</v>
       </c>
       <c r="F147">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G147">
         <v>21200</v>
       </c>
       <c r="H147">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="I147">
-        <v>-1500</v>
+        <v>-1200</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5727,16 +5727,16 @@
         <v>537</v>
       </c>
       <c r="F148">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G148">
         <v>53700</v>
       </c>
       <c r="H148">
-        <v>53600</v>
+        <v>53700</v>
       </c>
       <c r="I148">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5753,16 +5753,16 @@
         <v>307</v>
       </c>
       <c r="F149">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G149">
         <v>30700</v>
       </c>
       <c r="H149">
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="I149">
-        <v>-900</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5779,16 +5779,16 @@
         <v>299</v>
       </c>
       <c r="F150">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G150">
         <v>29900</v>
       </c>
       <c r="H150">
-        <v>30100</v>
+        <v>30400</v>
       </c>
       <c r="I150">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5831,16 +5831,16 @@
         <v>201</v>
       </c>
       <c r="F152">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G152">
         <v>20100</v>
       </c>
       <c r="H152">
-        <v>17800</v>
+        <v>18000</v>
       </c>
       <c r="I152">
-        <v>-2300</v>
+        <v>-2100</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5857,16 +5857,16 @@
         <v>830</v>
       </c>
       <c r="F153">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="G153">
         <v>83000</v>
       </c>
       <c r="H153">
-        <v>82100</v>
+        <v>81200</v>
       </c>
       <c r="I153">
-        <v>-900</v>
+        <v>-1800</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5883,16 +5883,16 @@
         <v>472</v>
       </c>
       <c r="F154">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G154">
         <v>47200</v>
       </c>
       <c r="H154">
-        <v>49000</v>
+        <v>49300</v>
       </c>
       <c r="I154">
-        <v>1800</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5909,16 +5909,16 @@
         <v>368</v>
       </c>
       <c r="F155">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G155">
         <v>36800</v>
       </c>
       <c r="H155">
-        <v>36100</v>
+        <v>36800</v>
       </c>
       <c r="I155">
-        <v>-700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5935,16 +5935,16 @@
         <v>844</v>
       </c>
       <c r="F156">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="G156">
         <v>84400</v>
       </c>
       <c r="H156">
-        <v>83200</v>
+        <v>83900</v>
       </c>
       <c r="I156">
-        <v>-1200</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5961,16 +5961,16 @@
         <v>810</v>
       </c>
       <c r="F157">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="G157">
         <v>81000</v>
       </c>
       <c r="H157">
-        <v>79200</v>
+        <v>80000</v>
       </c>
       <c r="I157">
-        <v>-1800</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5987,16 +5987,16 @@
         <v>454</v>
       </c>
       <c r="F158">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G158">
         <v>45400</v>
       </c>
       <c r="H158">
-        <v>45600</v>
+        <v>46400</v>
       </c>
       <c r="I158">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6013,16 +6013,16 @@
         <v>88</v>
       </c>
       <c r="F159">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G159">
         <v>8800</v>
       </c>
       <c r="H159">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="I159">
-        <v>-700</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6065,16 +6065,16 @@
         <v>411</v>
       </c>
       <c r="F161">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G161">
         <v>41100</v>
       </c>
       <c r="H161">
-        <v>40200</v>
+        <v>40800</v>
       </c>
       <c r="I161">
-        <v>-900</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6091,16 +6091,16 @@
         <v>215</v>
       </c>
       <c r="F162">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G162">
         <v>21500</v>
       </c>
       <c r="H162">
-        <v>20200</v>
+        <v>20500</v>
       </c>
       <c r="I162">
-        <v>-1300</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6117,16 +6117,16 @@
         <v>813</v>
       </c>
       <c r="F163">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="G163">
         <v>81300</v>
       </c>
       <c r="H163">
-        <v>79200</v>
+        <v>81000</v>
       </c>
       <c r="I163">
-        <v>-2100</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6143,16 +6143,16 @@
         <v>370</v>
       </c>
       <c r="F164">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="G164">
         <v>37000</v>
       </c>
       <c r="H164">
-        <v>35000</v>
+        <v>36600</v>
       </c>
       <c r="I164">
-        <v>-2000</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6169,16 +6169,16 @@
         <v>177</v>
       </c>
       <c r="F165">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G165">
         <v>17700</v>
       </c>
       <c r="H165">
-        <v>24800</v>
+        <v>25200</v>
       </c>
       <c r="I165">
-        <v>7100</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6195,16 +6195,16 @@
         <v>304</v>
       </c>
       <c r="F166">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G166">
         <v>30400</v>
       </c>
       <c r="H166">
-        <v>28800</v>
+        <v>29300</v>
       </c>
       <c r="I166">
-        <v>-1600</v>
+        <v>-1100</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6221,16 +6221,16 @@
         <v>829</v>
       </c>
       <c r="F167">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G167">
         <v>82900</v>
       </c>
       <c r="H167">
-        <v>81900</v>
+        <v>81800</v>
       </c>
       <c r="I167">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6247,16 +6247,16 @@
         <v>391</v>
       </c>
       <c r="F168">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G168">
         <v>39100</v>
       </c>
       <c r="H168">
-        <v>38300</v>
+        <v>38400</v>
       </c>
       <c r="I168">
-        <v>-800</v>
+        <v>-700</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6273,16 +6273,16 @@
         <v>262</v>
       </c>
       <c r="F169">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G169">
         <v>26200</v>
       </c>
       <c r="H169">
-        <v>26700</v>
+        <v>27000</v>
       </c>
       <c r="I169">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6299,16 +6299,16 @@
         <v>233</v>
       </c>
       <c r="F170">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="G170">
         <v>23300</v>
       </c>
       <c r="H170">
-        <v>24300</v>
+        <v>25600</v>
       </c>
       <c r="I170">
-        <v>1000</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6325,16 +6325,16 @@
         <v>824</v>
       </c>
       <c r="F171">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="G171">
         <v>82400</v>
       </c>
       <c r="H171">
-        <v>80000</v>
+        <v>82400</v>
       </c>
       <c r="I171">
-        <v>-2400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6351,16 +6351,16 @@
         <v>218</v>
       </c>
       <c r="F172">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G172">
         <v>21800</v>
       </c>
       <c r="H172">
-        <v>20400</v>
+        <v>21000</v>
       </c>
       <c r="I172">
-        <v>-1400</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6377,16 +6377,16 @@
         <v>506</v>
       </c>
       <c r="F173">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G173">
         <v>50600</v>
       </c>
       <c r="H173">
-        <v>50000</v>
+        <v>50300</v>
       </c>
       <c r="I173">
-        <v>-600</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6403,16 +6403,16 @@
         <v>444</v>
       </c>
       <c r="F174">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="G174">
         <v>44400</v>
       </c>
       <c r="H174">
-        <v>43900</v>
+        <v>45000</v>
       </c>
       <c r="I174">
-        <v>-500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6429,16 +6429,16 @@
         <v>234</v>
       </c>
       <c r="F175">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G175">
         <v>23400</v>
       </c>
       <c r="H175">
-        <v>22400</v>
+        <v>22300</v>
       </c>
       <c r="I175">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6455,16 +6455,16 @@
         <v>246</v>
       </c>
       <c r="F176">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G176">
         <v>24600</v>
       </c>
       <c r="H176">
-        <v>25500</v>
+        <v>24700</v>
       </c>
       <c r="I176">
-        <v>900</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6481,16 +6481,16 @@
         <v>55</v>
       </c>
       <c r="F177">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G177">
         <v>5500</v>
       </c>
       <c r="H177">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="I177">
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6507,16 +6507,16 @@
         <v>546</v>
       </c>
       <c r="F178">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G178">
         <v>54600</v>
       </c>
       <c r="H178">
-        <v>56400</v>
+        <v>56200</v>
       </c>
       <c r="I178">
-        <v>1800</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6533,16 +6533,16 @@
         <v>493</v>
       </c>
       <c r="F179">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="G179">
         <v>49300</v>
       </c>
       <c r="H179">
-        <v>46300</v>
+        <v>47600</v>
       </c>
       <c r="I179">
-        <v>-3000</v>
+        <v>-1700</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6555,20 +6555,23 @@
       <c r="C180">
         <v>100</v>
       </c>
+      <c r="D180">
+        <v>100</v>
+      </c>
       <c r="E180">
         <v>121</v>
       </c>
       <c r="F180">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="G180">
         <v>12100</v>
       </c>
       <c r="H180">
-        <v>26200</v>
+        <v>21400</v>
       </c>
       <c r="I180">
-        <v>14100</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6585,16 +6588,16 @@
         <v>376</v>
       </c>
       <c r="F181">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G181">
         <v>37600</v>
       </c>
       <c r="H181">
-        <v>37000</v>
+        <v>37500</v>
       </c>
       <c r="I181">
-        <v>-600</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6611,16 +6614,16 @@
         <v>401</v>
       </c>
       <c r="F182">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G182">
         <v>40100</v>
       </c>
       <c r="H182">
-        <v>39500</v>
+        <v>39100</v>
       </c>
       <c r="I182">
-        <v>-600</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6637,16 +6640,16 @@
         <v>113</v>
       </c>
       <c r="F183">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G183">
         <v>11300</v>
       </c>
       <c r="H183">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="I183">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6663,16 +6666,16 @@
         <v>349</v>
       </c>
       <c r="F184">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G184">
         <v>34900</v>
       </c>
       <c r="H184">
-        <v>33800</v>
+        <v>34000</v>
       </c>
       <c r="I184">
-        <v>-1100</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6689,16 +6692,16 @@
         <v>441</v>
       </c>
       <c r="F185">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G185">
         <v>44100</v>
       </c>
       <c r="H185">
-        <v>43500</v>
+        <v>44100</v>
       </c>
       <c r="I185">
-        <v>-600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6715,16 +6718,16 @@
         <v>186</v>
       </c>
       <c r="F186">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G186">
         <v>18600</v>
       </c>
       <c r="H186">
-        <v>16800</v>
+        <v>17100</v>
       </c>
       <c r="I186">
-        <v>-1800</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6741,16 +6744,16 @@
         <v>415</v>
       </c>
       <c r="F187">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G187">
         <v>41500</v>
       </c>
       <c r="H187">
-        <v>41300</v>
+        <v>41600</v>
       </c>
       <c r="I187">
-        <v>-200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6767,16 +6770,16 @@
         <v>805</v>
       </c>
       <c r="F188">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="G188">
         <v>80500</v>
       </c>
       <c r="H188">
-        <v>78500</v>
+        <v>80300</v>
       </c>
       <c r="I188">
-        <v>-2000</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6793,16 +6796,16 @@
         <v>341</v>
       </c>
       <c r="F189">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G189">
         <v>34100</v>
       </c>
       <c r="H189">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="I189">
-        <v>-800</v>
+        <v>-700</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6819,16 +6822,16 @@
         <v>343</v>
       </c>
       <c r="F190">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G190">
         <v>34300</v>
       </c>
       <c r="H190">
-        <v>33800</v>
+        <v>34000</v>
       </c>
       <c r="I190">
-        <v>-500</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6845,16 +6848,16 @@
         <v>483</v>
       </c>
       <c r="F191">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G191">
         <v>48300</v>
       </c>
       <c r="H191">
-        <v>48700</v>
+        <v>49000</v>
       </c>
       <c r="I191">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6871,16 +6874,16 @@
         <v>239</v>
       </c>
       <c r="F192">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G192">
         <v>23900</v>
       </c>
       <c r="H192">
-        <v>22400</v>
+        <v>22600</v>
       </c>
       <c r="I192">
-        <v>-1500</v>
+        <v>-1300</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6897,16 +6900,16 @@
         <v>49</v>
       </c>
       <c r="F193">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G193">
         <v>4900</v>
       </c>
       <c r="H193">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="I193">
-        <v>-100</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6923,16 +6926,16 @@
         <v>859</v>
       </c>
       <c r="F194">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G194">
         <v>85900</v>
       </c>
       <c r="H194">
-        <v>85200</v>
+        <v>85400</v>
       </c>
       <c r="I194">
-        <v>-700</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6949,16 +6952,16 @@
         <v>484</v>
       </c>
       <c r="F195">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G195">
         <v>48400</v>
       </c>
       <c r="H195">
-        <v>44800</v>
+        <v>45400</v>
       </c>
       <c r="I195">
-        <v>-3600</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6975,16 +6978,16 @@
         <v>414</v>
       </c>
       <c r="F196">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="G196">
         <v>41400</v>
       </c>
       <c r="H196">
-        <v>40400</v>
+        <v>42500</v>
       </c>
       <c r="I196">
-        <v>-1000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7027,16 +7030,16 @@
         <v>272</v>
       </c>
       <c r="F198">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G198">
         <v>27200</v>
       </c>
       <c r="H198">
-        <v>26600</v>
+        <v>26900</v>
       </c>
       <c r="I198">
-        <v>-600</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7053,16 +7056,16 @@
         <v>91</v>
       </c>
       <c r="F199">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G199">
         <v>9100</v>
       </c>
       <c r="H199">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="I199">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7079,16 +7082,16 @@
         <v>530</v>
       </c>
       <c r="F200">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="G200">
         <v>53000</v>
       </c>
       <c r="H200">
-        <v>52000</v>
+        <v>53800</v>
       </c>
       <c r="I200">
-        <v>-1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7105,16 +7108,16 @@
         <v>155</v>
       </c>
       <c r="F201">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G201">
         <v>15500</v>
       </c>
       <c r="H201">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="I201">
-        <v>-600</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7131,16 +7134,16 @@
         <v>140</v>
       </c>
       <c r="F202">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G202">
         <v>14000</v>
       </c>
       <c r="H202">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="I202">
-        <v>-500</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7157,16 +7160,16 @@
         <v>68</v>
       </c>
       <c r="F203">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G203">
         <v>6800</v>
       </c>
       <c r="H203">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="I203">
-        <v>-200</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7209,16 +7212,16 @@
         <v>338</v>
       </c>
       <c r="F205">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G205">
         <v>33800</v>
       </c>
       <c r="H205">
-        <v>30300</v>
+        <v>30500</v>
       </c>
       <c r="I205">
-        <v>-3500</v>
+        <v>-3300</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7235,16 +7238,16 @@
         <v>306</v>
       </c>
       <c r="F206">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G206">
         <v>30600</v>
       </c>
       <c r="H206">
-        <v>29800</v>
+        <v>30200</v>
       </c>
       <c r="I206">
-        <v>-800</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7261,16 +7264,16 @@
         <v>217</v>
       </c>
       <c r="F207">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="G207">
         <v>21700</v>
       </c>
       <c r="H207">
-        <v>22100</v>
+        <v>24100</v>
       </c>
       <c r="I207">
-        <v>400</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7287,16 +7290,16 @@
         <v>506</v>
       </c>
       <c r="F208">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="G208">
         <v>50600</v>
       </c>
       <c r="H208">
-        <v>48700</v>
+        <v>50800</v>
       </c>
       <c r="I208">
-        <v>-1900</v>
+        <v>200</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7313,16 +7316,16 @@
         <v>458</v>
       </c>
       <c r="F209">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="G209">
         <v>45800</v>
       </c>
       <c r="H209">
-        <v>44300</v>
+        <v>45500</v>
       </c>
       <c r="I209">
-        <v>-1500</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7339,16 +7342,16 @@
         <v>511</v>
       </c>
       <c r="F210">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="G210">
         <v>51100</v>
       </c>
       <c r="H210">
-        <v>51200</v>
+        <v>53700</v>
       </c>
       <c r="I210">
-        <v>100</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7365,16 +7368,16 @@
         <v>448</v>
       </c>
       <c r="F211">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="G211">
         <v>44800</v>
       </c>
       <c r="H211">
-        <v>42500</v>
+        <v>43500</v>
       </c>
       <c r="I211">
-        <v>-2300</v>
+        <v>-1300</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7391,16 +7394,16 @@
         <v>323</v>
       </c>
       <c r="F212">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G212">
         <v>32300</v>
       </c>
       <c r="H212">
-        <v>32400</v>
+        <v>33000</v>
       </c>
       <c r="I212">
-        <v>100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7417,16 +7420,16 @@
         <v>363</v>
       </c>
       <c r="F213">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G213">
         <v>36300</v>
       </c>
       <c r="H213">
-        <v>37200</v>
+        <v>36800</v>
       </c>
       <c r="I213">
-        <v>900</v>
+        <v>500</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7443,16 +7446,16 @@
         <v>306</v>
       </c>
       <c r="F214">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G214">
         <v>30600</v>
       </c>
       <c r="H214">
-        <v>30000</v>
+        <v>30600</v>
       </c>
       <c r="I214">
-        <v>-600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7469,16 +7472,16 @@
         <v>367</v>
       </c>
       <c r="F215">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G215">
         <v>36700</v>
       </c>
       <c r="H215">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="I215">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7495,16 +7498,16 @@
         <v>136</v>
       </c>
       <c r="F216">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="G216">
         <v>13600</v>
       </c>
       <c r="H216">
-        <v>16000</v>
+        <v>22200</v>
       </c>
       <c r="I216">
-        <v>2400</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7521,16 +7524,16 @@
         <v>297</v>
       </c>
       <c r="F217">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G217">
         <v>29700</v>
       </c>
       <c r="H217">
-        <v>28800</v>
+        <v>29400</v>
       </c>
       <c r="I217">
-        <v>-900</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7547,16 +7550,16 @@
         <v>322</v>
       </c>
       <c r="F218">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G218">
         <v>32200</v>
       </c>
       <c r="H218">
-        <v>30900</v>
+        <v>31500</v>
       </c>
       <c r="I218">
-        <v>-1300</v>
+        <v>-700</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7573,16 +7576,16 @@
         <v>350</v>
       </c>
       <c r="F219">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G219">
         <v>35000</v>
       </c>
       <c r="H219">
-        <v>33100</v>
+        <v>33900</v>
       </c>
       <c r="I219">
-        <v>-1900</v>
+        <v>-1100</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7599,16 +7602,16 @@
         <v>522</v>
       </c>
       <c r="F220">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="G220">
         <v>52200</v>
       </c>
       <c r="H220">
-        <v>48100</v>
+        <v>49800</v>
       </c>
       <c r="I220">
-        <v>-4100</v>
+        <v>-2400</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7625,16 +7628,16 @@
         <v>375</v>
       </c>
       <c r="F221">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="G221">
         <v>37500</v>
       </c>
       <c r="H221">
-        <v>39600</v>
+        <v>41400</v>
       </c>
       <c r="I221">
-        <v>2100</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7651,16 +7654,16 @@
         <v>111</v>
       </c>
       <c r="F222">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G222">
         <v>11100</v>
       </c>
       <c r="H222">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="I222">
-        <v>-600</v>
+        <v>-700</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -7677,16 +7680,16 @@
         <v>125</v>
       </c>
       <c r="F223">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G223">
         <v>12500</v>
       </c>
       <c r="H223">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="I223">
-        <v>-900</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -7703,16 +7706,16 @@
         <v>816</v>
       </c>
       <c r="F224">
-        <v>796</v>
+        <v>824</v>
       </c>
       <c r="G224">
         <v>81600</v>
       </c>
       <c r="H224">
-        <v>79600</v>
+        <v>82400</v>
       </c>
       <c r="I224">
-        <v>-2000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7729,16 +7732,16 @@
         <v>226</v>
       </c>
       <c r="F225">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G225">
         <v>22600</v>
       </c>
       <c r="H225">
-        <v>21100</v>
+        <v>21300</v>
       </c>
       <c r="I225">
-        <v>-1500</v>
+        <v>-1300</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -7755,16 +7758,16 @@
         <v>32</v>
       </c>
       <c r="F226">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G226">
         <v>3200</v>
       </c>
       <c r="H226">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="I226">
-        <v>-300</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -7781,16 +7784,16 @@
         <v>268</v>
       </c>
       <c r="F227">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G227">
         <v>26800</v>
       </c>
       <c r="H227">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7807,16 +7810,16 @@
         <v>415</v>
       </c>
       <c r="F228">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="G228">
         <v>41500</v>
       </c>
       <c r="H228">
-        <v>40200</v>
+        <v>41100</v>
       </c>
       <c r="I228">
-        <v>-1300</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7833,16 +7836,16 @@
         <v>515</v>
       </c>
       <c r="F229">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="G229">
         <v>51500</v>
       </c>
       <c r="H229">
-        <v>50600</v>
+        <v>52300</v>
       </c>
       <c r="I229">
-        <v>-900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7859,16 +7862,16 @@
         <v>303</v>
       </c>
       <c r="F230">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G230">
         <v>30300</v>
       </c>
       <c r="H230">
-        <v>30700</v>
+        <v>30200</v>
       </c>
       <c r="I230">
-        <v>400</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7885,16 +7888,16 @@
         <v>321</v>
       </c>
       <c r="F231">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G231">
         <v>32100</v>
       </c>
       <c r="H231">
-        <v>38400</v>
+        <v>38200</v>
       </c>
       <c r="I231">
-        <v>6300</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7911,16 +7914,16 @@
         <v>291</v>
       </c>
       <c r="F232">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G232">
         <v>29100</v>
       </c>
       <c r="H232">
-        <v>28800</v>
+        <v>29400</v>
       </c>
       <c r="I232">
-        <v>-300</v>
+        <v>300</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7937,16 +7940,16 @@
         <v>448</v>
       </c>
       <c r="F233">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="G233">
         <v>44800</v>
       </c>
       <c r="H233">
-        <v>44500</v>
+        <v>45800</v>
       </c>
       <c r="I233">
-        <v>-300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -7963,16 +7966,16 @@
         <v>44</v>
       </c>
       <c r="F234">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G234">
         <v>4400</v>
       </c>
       <c r="H234">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I234">
-        <v>-300</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -7989,16 +7992,16 @@
         <v>69</v>
       </c>
       <c r="F235">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G235">
         <v>6900</v>
       </c>
       <c r="H235">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="I235">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -8015,16 +8018,16 @@
         <v>525</v>
       </c>
       <c r="F236">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="G236">
         <v>52500</v>
       </c>
       <c r="H236">
-        <v>52300</v>
+        <v>55400</v>
       </c>
       <c r="I236">
-        <v>-200</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -8041,16 +8044,16 @@
         <v>221</v>
       </c>
       <c r="F237">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G237">
         <v>22100</v>
       </c>
       <c r="H237">
-        <v>20300</v>
+        <v>21300</v>
       </c>
       <c r="I237">
-        <v>-1800</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -8067,16 +8070,16 @@
         <v>128</v>
       </c>
       <c r="F238">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G238">
         <v>12800</v>
       </c>
       <c r="H238">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="I238">
-        <v>-600</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -8093,16 +8096,16 @@
         <v>88</v>
       </c>
       <c r="F239">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G239">
         <v>8800</v>
       </c>
       <c r="H239">
-        <v>8400</v>
+        <v>8900</v>
       </c>
       <c r="I239">
-        <v>-400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -8119,16 +8122,16 @@
         <v>299</v>
       </c>
       <c r="F240">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G240">
         <v>29900</v>
       </c>
       <c r="H240">
-        <v>29500</v>
+        <v>29800</v>
       </c>
       <c r="I240">
-        <v>-400</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -8145,16 +8148,16 @@
         <v>455</v>
       </c>
       <c r="F241">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="G241">
         <v>45500</v>
       </c>
       <c r="H241">
-        <v>42500</v>
+        <v>43400</v>
       </c>
       <c r="I241">
-        <v>-3000</v>
+        <v>-2100</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -8171,16 +8174,16 @@
         <v>460</v>
       </c>
       <c r="F242">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="G242">
         <v>46000</v>
       </c>
       <c r="H242">
-        <v>44200</v>
+        <v>46900</v>
       </c>
       <c r="I242">
-        <v>-1800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -8197,16 +8200,16 @@
         <v>344</v>
       </c>
       <c r="F243">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G243">
         <v>34400</v>
       </c>
       <c r="H243">
-        <v>34000</v>
+        <v>34700</v>
       </c>
       <c r="I243">
-        <v>-400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -8223,16 +8226,16 @@
         <v>482</v>
       </c>
       <c r="F244">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G244">
         <v>48200</v>
       </c>
       <c r="H244">
-        <v>50200</v>
+        <v>50100</v>
       </c>
       <c r="I244">
-        <v>2000</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -8249,16 +8252,16 @@
         <v>850</v>
       </c>
       <c r="F245">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="G245">
         <v>85000</v>
       </c>
       <c r="H245">
-        <v>84500</v>
+        <v>85600</v>
       </c>
       <c r="I245">
-        <v>-500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -8275,16 +8278,16 @@
         <v>384</v>
       </c>
       <c r="F246">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G246">
         <v>38400</v>
       </c>
       <c r="H246">
-        <v>38200</v>
+        <v>38700</v>
       </c>
       <c r="I246">
-        <v>-200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -8301,16 +8304,16 @@
         <v>483</v>
       </c>
       <c r="F247">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G247">
         <v>48300</v>
       </c>
       <c r="H247">
-        <v>50900</v>
+        <v>51100</v>
       </c>
       <c r="I247">
-        <v>2600</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -8327,16 +8330,16 @@
         <v>399</v>
       </c>
       <c r="F248">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="G248">
         <v>39900</v>
       </c>
       <c r="H248">
-        <v>39000</v>
+        <v>39700</v>
       </c>
       <c r="I248">
-        <v>-900</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -8353,16 +8356,16 @@
         <v>375</v>
       </c>
       <c r="F249">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G249">
         <v>37500</v>
       </c>
       <c r="H249">
-        <v>38800</v>
+        <v>38200</v>
       </c>
       <c r="I249">
-        <v>1300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -8379,16 +8382,16 @@
         <v>33</v>
       </c>
       <c r="F250">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G250">
         <v>3300</v>
       </c>
       <c r="H250">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I250">
-        <v>-200</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -8405,16 +8408,16 @@
         <v>183</v>
       </c>
       <c r="F251">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G251">
         <v>18300</v>
       </c>
       <c r="H251">
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="I251">
-        <v>-200</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -8457,16 +8460,16 @@
         <v>295</v>
       </c>
       <c r="F253">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G253">
         <v>29500</v>
       </c>
       <c r="H253">
-        <v>28600</v>
+        <v>29100</v>
       </c>
       <c r="I253">
-        <v>-900</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -8483,16 +8486,16 @@
         <v>463</v>
       </c>
       <c r="F254">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="G254">
         <v>46300</v>
       </c>
       <c r="H254">
-        <v>44500</v>
+        <v>45500</v>
       </c>
       <c r="I254">
-        <v>-1800</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -8509,16 +8512,16 @@
         <v>812</v>
       </c>
       <c r="F255">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="G255">
         <v>81200</v>
       </c>
       <c r="H255">
-        <v>80300</v>
+        <v>80900</v>
       </c>
       <c r="I255">
-        <v>-900</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -8535,16 +8538,16 @@
         <v>355</v>
       </c>
       <c r="F256">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G256">
         <v>35500</v>
       </c>
       <c r="H256">
-        <v>34900</v>
+        <v>35200</v>
       </c>
       <c r="I256">
-        <v>-600</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -8561,16 +8564,16 @@
         <v>459</v>
       </c>
       <c r="F257">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="G257">
         <v>45900</v>
       </c>
       <c r="H257">
-        <v>44900</v>
+        <v>49900</v>
       </c>
       <c r="I257">
-        <v>-1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -8587,16 +8590,16 @@
         <v>310</v>
       </c>
       <c r="F258">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G258">
         <v>31000</v>
       </c>
       <c r="H258">
-        <v>30800</v>
+        <v>31000</v>
       </c>
       <c r="I258">
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -8639,16 +8642,16 @@
         <v>525</v>
       </c>
       <c r="F260">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="G260">
         <v>52500</v>
       </c>
       <c r="H260">
-        <v>49500</v>
+        <v>51900</v>
       </c>
       <c r="I260">
-        <v>-3000</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -8665,16 +8668,16 @@
         <v>110</v>
       </c>
       <c r="F261">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G261">
         <v>11000</v>
       </c>
       <c r="H261">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="I261">
-        <v>-900</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -8691,16 +8694,16 @@
         <v>252</v>
       </c>
       <c r="F262">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G262">
         <v>25200</v>
       </c>
       <c r="H262">
-        <v>25200</v>
+        <v>25500</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -8743,16 +8746,16 @@
         <v>277</v>
       </c>
       <c r="F264">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G264">
         <v>27700</v>
       </c>
       <c r="H264">
-        <v>26600</v>
+        <v>27700</v>
       </c>
       <c r="I264">
-        <v>-1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -8769,16 +8772,16 @@
         <v>521</v>
       </c>
       <c r="F265">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G265">
         <v>52100</v>
       </c>
       <c r="H265">
-        <v>52600</v>
+        <v>52700</v>
       </c>
       <c r="I265">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -8795,16 +8798,16 @@
         <v>481</v>
       </c>
       <c r="F266">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G266">
         <v>48100</v>
       </c>
       <c r="H266">
-        <v>47200</v>
+        <v>48000</v>
       </c>
       <c r="I266">
-        <v>-900</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -8821,16 +8824,16 @@
         <v>533</v>
       </c>
       <c r="F267">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G267">
         <v>53300</v>
       </c>
       <c r="H267">
-        <v>52000</v>
+        <v>51400</v>
       </c>
       <c r="I267">
-        <v>-1300</v>
+        <v>-1900</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -8847,16 +8850,16 @@
         <v>243</v>
       </c>
       <c r="F268">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="G268">
         <v>24300</v>
       </c>
       <c r="H268">
-        <v>38100</v>
+        <v>44900</v>
       </c>
       <c r="I268">
-        <v>13800</v>
+        <v>20600</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -8873,16 +8876,16 @@
         <v>449</v>
       </c>
       <c r="F269">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="G269">
         <v>44900</v>
       </c>
       <c r="H269">
-        <v>45800</v>
+        <v>48600</v>
       </c>
       <c r="I269">
-        <v>900</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -8977,16 +8980,16 @@
         <v>361</v>
       </c>
       <c r="F273">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="G273">
         <v>36100</v>
       </c>
       <c r="H273">
-        <v>35000</v>
+        <v>36500</v>
       </c>
       <c r="I273">
-        <v>-1100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -9003,16 +9006,16 @@
         <v>257</v>
       </c>
       <c r="F274">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G274">
         <v>25700</v>
       </c>
       <c r="H274">
-        <v>26300</v>
+        <v>26900</v>
       </c>
       <c r="I274">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -9029,16 +9032,16 @@
         <v>256</v>
       </c>
       <c r="F275">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G275">
         <v>25600</v>
       </c>
       <c r="H275">
-        <v>24200</v>
+        <v>24600</v>
       </c>
       <c r="I275">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -9055,16 +9058,16 @@
         <v>404</v>
       </c>
       <c r="F276">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G276">
         <v>40400</v>
       </c>
       <c r="H276">
-        <v>39800</v>
+        <v>40400</v>
       </c>
       <c r="I276">
-        <v>-600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -9081,16 +9084,16 @@
         <v>122</v>
       </c>
       <c r="F277">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G277">
         <v>12200</v>
       </c>
       <c r="H277">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="I277">
-        <v>-300</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -9107,16 +9110,16 @@
         <v>510</v>
       </c>
       <c r="F278">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="G278">
         <v>51000</v>
       </c>
       <c r="H278">
-        <v>48200</v>
+        <v>49400</v>
       </c>
       <c r="I278">
-        <v>-2800</v>
+        <v>-1600</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -9133,16 +9136,16 @@
         <v>489</v>
       </c>
       <c r="F279">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="G279">
         <v>48900</v>
       </c>
       <c r="H279">
-        <v>45800</v>
+        <v>47500</v>
       </c>
       <c r="I279">
-        <v>-3100</v>
+        <v>-1400</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -9159,16 +9162,16 @@
         <v>398</v>
       </c>
       <c r="F280">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G280">
         <v>39800</v>
       </c>
       <c r="H280">
-        <v>40200</v>
+        <v>40000</v>
       </c>
       <c r="I280">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -9185,16 +9188,16 @@
         <v>830</v>
       </c>
       <c r="F281">
-        <v>829</v>
+        <v>861</v>
       </c>
       <c r="G281">
         <v>83000</v>
       </c>
       <c r="H281">
-        <v>82900</v>
+        <v>86100</v>
       </c>
       <c r="I281">
-        <v>-100</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -9211,16 +9214,16 @@
         <v>154</v>
       </c>
       <c r="F282">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G282">
         <v>15400</v>
       </c>
       <c r="H282">
-        <v>14400</v>
+        <v>14900</v>
       </c>
       <c r="I282">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -9237,16 +9240,16 @@
         <v>113</v>
       </c>
       <c r="F283">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G283">
         <v>11300</v>
       </c>
       <c r="H283">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="I283">
-        <v>-400</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -9263,16 +9266,16 @@
         <v>169</v>
       </c>
       <c r="F284">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G284">
         <v>16900</v>
       </c>
       <c r="H284">
-        <v>16700</v>
+        <v>16900</v>
       </c>
       <c r="I284">
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -9341,16 +9344,16 @@
         <v>417</v>
       </c>
       <c r="F287">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G287">
         <v>41700</v>
       </c>
       <c r="H287">
-        <v>43500</v>
+        <v>43900</v>
       </c>
       <c r="I287">
-        <v>1800</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -9367,16 +9370,16 @@
         <v>320</v>
       </c>
       <c r="F288">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G288">
         <v>32000</v>
       </c>
       <c r="H288">
-        <v>32400</v>
+        <v>32100</v>
       </c>
       <c r="I288">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -9393,16 +9396,16 @@
         <v>183</v>
       </c>
       <c r="F289">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G289">
         <v>18300</v>
       </c>
       <c r="H289">
-        <v>17200</v>
+        <v>17800</v>
       </c>
       <c r="I289">
-        <v>-1100</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -9419,16 +9422,16 @@
         <v>368</v>
       </c>
       <c r="F290">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G290">
         <v>36800</v>
       </c>
       <c r="H290">
-        <v>36500</v>
+        <v>36600</v>
       </c>
       <c r="I290">
-        <v>-300</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -9445,16 +9448,16 @@
         <v>510</v>
       </c>
       <c r="F291">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G291">
         <v>51000</v>
       </c>
       <c r="H291">
-        <v>50000</v>
+        <v>50400</v>
       </c>
       <c r="I291">
-        <v>-1000</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -9497,16 +9500,16 @@
         <v>464</v>
       </c>
       <c r="F293">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="G293">
         <v>46400</v>
       </c>
       <c r="H293">
-        <v>47300</v>
+        <v>48100</v>
       </c>
       <c r="I293">
-        <v>900</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -9523,16 +9526,16 @@
         <v>178</v>
       </c>
       <c r="F294">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G294">
         <v>17800</v>
       </c>
       <c r="H294">
-        <v>17900</v>
+        <v>18000</v>
       </c>
       <c r="I294">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -9549,16 +9552,16 @@
         <v>818</v>
       </c>
       <c r="F295">
-        <v>800.6</v>
+        <v>819.9</v>
       </c>
       <c r="G295">
         <v>81800</v>
       </c>
       <c r="H295">
-        <v>80060</v>
+        <v>81990</v>
       </c>
       <c r="I295">
-        <v>-1740</v>
+        <v>190</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -9575,16 +9578,16 @@
         <v>366</v>
       </c>
       <c r="F296">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="G296">
         <v>36600</v>
       </c>
       <c r="H296">
-        <v>37000</v>
+        <v>38300</v>
       </c>
       <c r="I296">
-        <v>400</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -9601,16 +9604,16 @@
         <v>480</v>
       </c>
       <c r="F297">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G297">
         <v>48000</v>
       </c>
       <c r="H297">
-        <v>46200</v>
+        <v>46500</v>
       </c>
       <c r="I297">
-        <v>-1800</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -9627,16 +9630,16 @@
         <v>461</v>
       </c>
       <c r="F298">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="G298">
         <v>46100</v>
       </c>
       <c r="H298">
-        <v>44500</v>
+        <v>45200</v>
       </c>
       <c r="I298">
-        <v>-1600</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -9653,16 +9656,16 @@
         <v>90</v>
       </c>
       <c r="F299">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G299">
         <v>9000</v>
       </c>
       <c r="H299">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -9757,16 +9760,16 @@
         <v>193</v>
       </c>
       <c r="F303">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G303">
         <v>19300</v>
       </c>
       <c r="H303">
-        <v>18900</v>
+        <v>19000</v>
       </c>
       <c r="I303">
-        <v>-400</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -9783,16 +9786,16 @@
         <v>162</v>
       </c>
       <c r="F304">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="G304">
         <v>16200</v>
       </c>
       <c r="H304">
-        <v>22500</v>
+        <v>23200</v>
       </c>
       <c r="I304">
-        <v>6300</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -9809,16 +9812,16 @@
         <v>282</v>
       </c>
       <c r="F305">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G305">
         <v>28200</v>
       </c>
       <c r="H305">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="I305">
-        <v>-2200</v>
+        <v>-1800</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -9835,16 +9838,16 @@
         <v>438</v>
       </c>
       <c r="F306">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G306">
         <v>43800</v>
       </c>
       <c r="H306">
-        <v>44100</v>
+        <v>44300</v>
       </c>
       <c r="I306">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -9861,16 +9864,16 @@
         <v>193</v>
       </c>
       <c r="F307">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G307">
         <v>19300</v>
       </c>
       <c r="H307">
-        <v>22000</v>
+        <v>22600</v>
       </c>
       <c r="I307">
-        <v>2700</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -9887,16 +9890,16 @@
         <v>114</v>
       </c>
       <c r="F308">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G308">
         <v>11400</v>
       </c>
       <c r="H308">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="I308">
-        <v>-500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -9913,16 +9916,16 @@
         <v>249</v>
       </c>
       <c r="F309">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G309">
         <v>24900</v>
       </c>
       <c r="H309">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="I309">
-        <v>-400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -9939,16 +9942,16 @@
         <v>291</v>
       </c>
       <c r="F310">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="G310">
         <v>29100</v>
       </c>
       <c r="H310">
-        <v>28300</v>
+        <v>29000</v>
       </c>
       <c r="I310">
-        <v>-800</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -9965,16 +9968,16 @@
         <v>484</v>
       </c>
       <c r="F311">
-        <v>466.5</v>
+        <v>472.3</v>
       </c>
       <c r="G311">
         <v>48400</v>
       </c>
       <c r="H311">
-        <v>46650</v>
+        <v>47230</v>
       </c>
       <c r="I311">
-        <v>-1750</v>
+        <v>-1170</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -9991,16 +9994,16 @@
         <v>379</v>
       </c>
       <c r="F312">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="G312">
         <v>37900</v>
       </c>
       <c r="H312">
-        <v>37100</v>
+        <v>38100</v>
       </c>
       <c r="I312">
-        <v>-800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -10017,16 +10020,16 @@
         <v>244</v>
       </c>
       <c r="F313">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G313">
         <v>24400</v>
       </c>
       <c r="H313">
-        <v>22600</v>
+        <v>23200</v>
       </c>
       <c r="I313">
-        <v>-1800</v>
+        <v>-1200</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -10043,16 +10046,16 @@
         <v>501</v>
       </c>
       <c r="F314">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G314">
         <v>50100</v>
       </c>
       <c r="H314">
-        <v>45900</v>
+        <v>46400</v>
       </c>
       <c r="I314">
-        <v>-4200</v>
+        <v>-3700</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -10069,16 +10072,16 @@
         <v>486</v>
       </c>
       <c r="F315">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="G315">
         <v>48600</v>
       </c>
       <c r="H315">
-        <v>45700</v>
+        <v>46600</v>
       </c>
       <c r="I315">
-        <v>-2900</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -10095,16 +10098,16 @@
         <v>356</v>
       </c>
       <c r="F316">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G316">
         <v>35600</v>
       </c>
       <c r="H316">
-        <v>35700</v>
+        <v>34900</v>
       </c>
       <c r="I316">
-        <v>100</v>
+        <v>-700</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -10121,16 +10124,16 @@
         <v>820</v>
       </c>
       <c r="F317">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="G317">
         <v>82000</v>
       </c>
       <c r="H317">
-        <v>81500</v>
+        <v>83500</v>
       </c>
       <c r="I317">
-        <v>-500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -10147,16 +10150,16 @@
         <v>527</v>
       </c>
       <c r="F318">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G318">
         <v>52700</v>
       </c>
       <c r="H318">
-        <v>51600</v>
+        <v>52600</v>
       </c>
       <c r="I318">
-        <v>-1100</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -10173,16 +10176,16 @@
         <v>304</v>
       </c>
       <c r="F319">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G319">
         <v>30400</v>
       </c>
       <c r="H319">
-        <v>27100</v>
+        <v>27500</v>
       </c>
       <c r="I319">
-        <v>-3300</v>
+        <v>-2900</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -10199,16 +10202,16 @@
         <v>249</v>
       </c>
       <c r="F320">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G320">
         <v>24900</v>
       </c>
       <c r="H320">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="I320">
-        <v>-1800</v>
+        <v>-1400</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -10225,16 +10228,16 @@
         <v>496</v>
       </c>
       <c r="F321">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G321">
         <v>49600</v>
       </c>
       <c r="H321">
-        <v>49800</v>
+        <v>50200</v>
       </c>
       <c r="I321">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -10251,16 +10254,16 @@
         <v>161</v>
       </c>
       <c r="F322">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G322">
         <v>16100</v>
       </c>
       <c r="H322">
-        <v>15900</v>
+        <v>16400</v>
       </c>
       <c r="I322">
-        <v>-200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -10277,16 +10280,16 @@
         <v>91</v>
       </c>
       <c r="F323">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G323">
         <v>9100</v>
       </c>
       <c r="H323">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="I323">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -10303,16 +10306,16 @@
         <v>394</v>
       </c>
       <c r="F324">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G324">
         <v>39400</v>
       </c>
       <c r="H324">
-        <v>39000</v>
+        <v>39300</v>
       </c>
       <c r="I324">
-        <v>-400</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -10329,16 +10332,16 @@
         <v>161</v>
       </c>
       <c r="F325">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G325">
         <v>16100</v>
       </c>
       <c r="H325">
-        <v>14400</v>
+        <v>15100</v>
       </c>
       <c r="I325">
-        <v>-1700</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -10355,16 +10358,16 @@
         <v>111</v>
       </c>
       <c r="F326">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G326">
         <v>11100</v>
       </c>
       <c r="H326">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="I326">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -10381,16 +10384,16 @@
         <v>162</v>
       </c>
       <c r="F327">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="G327">
         <v>16200</v>
       </c>
       <c r="H327">
-        <v>22800</v>
+        <v>19000</v>
       </c>
       <c r="I327">
-        <v>6600</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -10433,16 +10436,16 @@
         <v>260</v>
       </c>
       <c r="F329">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G329">
         <v>26000</v>
       </c>
       <c r="H329">
-        <v>26100</v>
+        <v>27100</v>
       </c>
       <c r="I329">
-        <v>100</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -10459,16 +10462,16 @@
         <v>265</v>
       </c>
       <c r="F330">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G330">
         <v>26500</v>
       </c>
       <c r="H330">
-        <v>27400</v>
+        <v>27500</v>
       </c>
       <c r="I330">
-        <v>900</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -10485,16 +10488,16 @@
         <v>205</v>
       </c>
       <c r="F331">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="G331">
         <v>20500</v>
       </c>
       <c r="H331">
-        <v>33800</v>
+        <v>27500</v>
       </c>
       <c r="I331">
-        <v>13300</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -10511,16 +10514,16 @@
         <v>74</v>
       </c>
       <c r="F332">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G332">
         <v>7400</v>
       </c>
       <c r="H332">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="I332">
-        <v>-400</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -10537,16 +10540,16 @@
         <v>821</v>
       </c>
       <c r="F333">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="G333">
         <v>82100</v>
       </c>
       <c r="H333">
-        <v>81000</v>
+        <v>81300</v>
       </c>
       <c r="I333">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -10563,16 +10566,16 @@
         <v>33</v>
       </c>
       <c r="F334">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G334">
         <v>3300</v>
       </c>
       <c r="H334">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I334">
-        <v>-500</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -10589,16 +10592,16 @@
         <v>342</v>
       </c>
       <c r="F335">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G335">
         <v>34200</v>
       </c>
       <c r="H335">
-        <v>37300</v>
+        <v>38100</v>
       </c>
       <c r="I335">
-        <v>3100</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -10615,16 +10618,16 @@
         <v>803</v>
       </c>
       <c r="F336">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="G336">
         <v>80300</v>
       </c>
       <c r="H336">
-        <v>79300</v>
+        <v>80200</v>
       </c>
       <c r="I336">
-        <v>-1000</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -10641,16 +10644,16 @@
         <v>452</v>
       </c>
       <c r="F337">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="G337">
         <v>45200</v>
       </c>
       <c r="H337">
-        <v>45200</v>
+        <v>45800</v>
       </c>
       <c r="I337">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -10667,16 +10670,16 @@
         <v>48</v>
       </c>
       <c r="F338">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G338">
         <v>4800</v>
       </c>
       <c r="H338">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="I338">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -10693,16 +10696,16 @@
         <v>508</v>
       </c>
       <c r="F339">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="G339">
         <v>50800</v>
       </c>
       <c r="H339">
-        <v>49600</v>
+        <v>50100</v>
       </c>
       <c r="I339">
-        <v>-1200</v>
+        <v>-700</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -10719,16 +10722,16 @@
         <v>527</v>
       </c>
       <c r="F340">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="G340">
         <v>52700</v>
       </c>
       <c r="H340">
-        <v>52300</v>
+        <v>53000</v>
       </c>
       <c r="I340">
-        <v>-400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -10745,16 +10748,16 @@
         <v>126</v>
       </c>
       <c r="F341">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G341">
         <v>12600</v>
       </c>
       <c r="H341">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="I341">
-        <v>-600</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -10797,16 +10800,16 @@
         <v>80</v>
       </c>
       <c r="F343">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G343">
         <v>8000</v>
       </c>
       <c r="H343">
-        <v>8400</v>
+        <v>9200</v>
       </c>
       <c r="I343">
-        <v>400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -10823,16 +10826,16 @@
         <v>63</v>
       </c>
       <c r="F344">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G344">
         <v>6300</v>
       </c>
       <c r="H344">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="I344">
-        <v>-900</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -10849,16 +10852,16 @@
         <v>247</v>
       </c>
       <c r="F345">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G345">
         <v>24700</v>
       </c>
       <c r="H345">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="I345">
-        <v>-800</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -10875,16 +10878,16 @@
         <v>127</v>
       </c>
       <c r="F346">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G346">
         <v>12700</v>
       </c>
       <c r="H346">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="I346">
-        <v>-400</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -10901,16 +10904,16 @@
         <v>480</v>
       </c>
       <c r="F347">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="G347">
         <v>48000</v>
       </c>
       <c r="H347">
-        <v>46800</v>
+        <v>47600</v>
       </c>
       <c r="I347">
-        <v>-1200</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -10927,16 +10930,16 @@
         <v>491</v>
       </c>
       <c r="F348">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="G348">
         <v>49100</v>
       </c>
       <c r="H348">
-        <v>48800</v>
+        <v>49400</v>
       </c>
       <c r="I348">
-        <v>-300</v>
+        <v>300</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -10953,16 +10956,16 @@
         <v>517</v>
       </c>
       <c r="F349">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="G349">
         <v>51700</v>
       </c>
       <c r="H349">
-        <v>50300</v>
+        <v>51500</v>
       </c>
       <c r="I349">
-        <v>-1400</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -10979,16 +10982,16 @@
         <v>364</v>
       </c>
       <c r="F350">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="G350">
         <v>36400</v>
       </c>
       <c r="H350">
-        <v>37000</v>
+        <v>38300</v>
       </c>
       <c r="I350">
-        <v>600</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -11005,16 +11008,16 @@
         <v>366</v>
       </c>
       <c r="F351">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="G351">
         <v>36600</v>
       </c>
       <c r="H351">
-        <v>35400</v>
+        <v>36900</v>
       </c>
       <c r="I351">
-        <v>-1200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -11031,16 +11034,16 @@
         <v>257</v>
       </c>
       <c r="F352">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G352">
         <v>25700</v>
       </c>
       <c r="H352">
-        <v>25200</v>
+        <v>25400</v>
       </c>
       <c r="I352">
-        <v>-500</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -11057,16 +11060,16 @@
         <v>343</v>
       </c>
       <c r="F353">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G353">
         <v>34300</v>
       </c>
       <c r="H353">
-        <v>32900</v>
+        <v>33600</v>
       </c>
       <c r="I353">
-        <v>-1400</v>
+        <v>-700</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -11083,16 +11086,16 @@
         <v>801</v>
       </c>
       <c r="F354">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="G354">
         <v>80100</v>
       </c>
       <c r="H354">
-        <v>78500</v>
+        <v>79200</v>
       </c>
       <c r="I354">
-        <v>-1600</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -11109,16 +11112,16 @@
         <v>9</v>
       </c>
       <c r="F355">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G355">
         <v>900</v>
       </c>
       <c r="H355">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I355">
-        <v>-200</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -11135,16 +11138,16 @@
         <v>516</v>
       </c>
       <c r="F356">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G356">
         <v>51600</v>
       </c>
       <c r="H356">
-        <v>51500</v>
+        <v>51200</v>
       </c>
       <c r="I356">
-        <v>-100</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -11161,16 +11164,16 @@
         <v>293</v>
       </c>
       <c r="F357">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G357">
         <v>29300</v>
       </c>
       <c r="H357">
-        <v>28600</v>
+        <v>28900</v>
       </c>
       <c r="I357">
-        <v>-700</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -11187,16 +11190,16 @@
         <v>97</v>
       </c>
       <c r="F358">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G358">
         <v>9700</v>
       </c>
       <c r="H358">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="I358">
-        <v>-800</v>
+        <v>-500</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -11213,16 +11216,16 @@
         <v>240</v>
       </c>
       <c r="F359">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G359">
         <v>24000</v>
       </c>
       <c r="H359">
-        <v>23300</v>
+        <v>23400</v>
       </c>
       <c r="I359">
-        <v>-700</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -11239,16 +11242,16 @@
         <v>242</v>
       </c>
       <c r="F360">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G360">
         <v>24200</v>
       </c>
       <c r="H360">
-        <v>23600</v>
+        <v>23500</v>
       </c>
       <c r="I360">
-        <v>-600</v>
+        <v>-700</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -11265,16 +11268,16 @@
         <v>195</v>
       </c>
       <c r="F361">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G361">
         <v>19500</v>
       </c>
       <c r="H361">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="I361">
-        <v>-500</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -11291,16 +11294,16 @@
         <v>474</v>
       </c>
       <c r="F362">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G362">
         <v>47400</v>
       </c>
       <c r="H362">
-        <v>44300</v>
+        <v>44500</v>
       </c>
       <c r="I362">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -11317,16 +11320,16 @@
         <v>241</v>
       </c>
       <c r="F363">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G363">
         <v>24100</v>
       </c>
       <c r="H363">
-        <v>23600</v>
+        <v>23900</v>
       </c>
       <c r="I363">
-        <v>-500</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -11343,16 +11346,16 @@
         <v>376</v>
       </c>
       <c r="F364">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G364">
         <v>37600</v>
       </c>
       <c r="H364">
-        <v>37100</v>
+        <v>37000</v>
       </c>
       <c r="I364">
-        <v>-500</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -11369,16 +11372,16 @@
         <v>533</v>
       </c>
       <c r="F365">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G365">
         <v>53300</v>
       </c>
       <c r="H365">
-        <v>52000</v>
+        <v>52200</v>
       </c>
       <c r="I365">
-        <v>-1300</v>
+        <v>-1100</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -11395,16 +11398,16 @@
         <v>366</v>
       </c>
       <c r="F366">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G366">
         <v>36600</v>
       </c>
       <c r="H366">
-        <v>36000</v>
+        <v>35800</v>
       </c>
       <c r="I366">
-        <v>-600</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -11447,16 +11450,16 @@
         <v>244</v>
       </c>
       <c r="F368">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G368">
         <v>24400</v>
       </c>
       <c r="H368">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="I368">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -11473,16 +11476,16 @@
         <v>472</v>
       </c>
       <c r="F369">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="G369">
         <v>47200</v>
       </c>
       <c r="H369">
-        <v>46400</v>
+        <v>47900</v>
       </c>
       <c r="I369">
-        <v>-800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -11499,16 +11502,16 @@
         <v>364</v>
       </c>
       <c r="F370">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G370">
         <v>36400</v>
       </c>
       <c r="H370">
-        <v>35200</v>
+        <v>35400</v>
       </c>
       <c r="I370">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -11525,16 +11528,16 @@
         <v>282</v>
       </c>
       <c r="F371">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G371">
         <v>28200</v>
       </c>
       <c r="H371">
-        <v>27000</v>
+        <v>27200</v>
       </c>
       <c r="I371">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -11551,16 +11554,16 @@
         <v>530</v>
       </c>
       <c r="F372">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="G372">
         <v>53000</v>
       </c>
       <c r="H372">
-        <v>53100</v>
+        <v>53600</v>
       </c>
       <c r="I372">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -11577,16 +11580,16 @@
         <v>221</v>
       </c>
       <c r="F373">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G373">
         <v>22100</v>
       </c>
       <c r="H373">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="I373">
-        <v>-600</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -11655,16 +11658,16 @@
         <v>219</v>
       </c>
       <c r="F376">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G376">
         <v>21900</v>
       </c>
       <c r="H376">
-        <v>22800</v>
+        <v>23800</v>
       </c>
       <c r="I376">
-        <v>900</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -11681,16 +11684,16 @@
         <v>444</v>
       </c>
       <c r="F377">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G377">
         <v>44400</v>
       </c>
       <c r="H377">
-        <v>45500</v>
+        <v>45900</v>
       </c>
       <c r="I377">
-        <v>1100</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
